--- a/_testdata/new_example.xlsx
+++ b/_testdata/new_example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>a</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>aBi = api ; &lt;Hev&gt; &lt;Ro&gt; api = api  ; &lt;Ro&gt; apṕē = app'ee</t>
+  </si>
+  <si>
+    <t>Nirvi</t>
   </si>
 </sst>
 </file>
@@ -440,6 +443,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
